--- a/database/thesisProposal.xlsx
+++ b/database/thesisProposal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\OneDrive\Desktop\diana\adding thesis\ThesisManagement-Group09\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\POLI\MAGISTRALE\II ANNO\SOFTWARE ENGINEERING II\Progetto\ThesisManagement-Group09\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A170D33-37BD-4C6C-92B4-8C3C1739E62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271B851E-9907-4CE4-B09E-DA74ABFB6E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <t>LM</t>
   </si>
   <si>
-    <t>Corso di laurea magistrale in Ingegneria Dei Materiali</t>
+    <t>LM-30</t>
   </si>
 </sst>
 </file>
@@ -370,16 +370,16 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/database/thesisProposal.xlsx
+++ b/database/thesisProposal.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\POLI\MAGISTRALE\II ANNO\SOFTWARE ENGINEERING II\Progetto\ThesisManagement-Group09\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\Desktop\POLI magy\Software Engineering 2\main project\ThesisManagement-Group09\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271B851E-9907-4CE4-B09E-DA74ABFB6E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82468FD0-8E79-4A31-A1B9-50395F79B076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,30 +25,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>DEVELOPMENT OF SUSTAINABLE INSULATION MATERIALS BASED ON NATURAL FIBERS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+  <si>
+    <t>AI-GUIDED WEB CRAWLER FOR AUTOMATIC DETECTION OF MALICIOUS SITES</t>
+  </si>
+  <si>
+    <t>PERFORMANCE EVALUATION OF KAFKA CLIENTS USING A REACTIVE API</t>
+  </si>
+  <si>
+    <t>A STUDY OF CONGESTION CONTROL SCHEMES ON QUIC</t>
   </si>
   <si>
     <t>d279620</t>
   </si>
   <si>
-    <t>sperimental</t>
-  </si>
-  <si>
-    <t>Al giorno d’oggi è impensabile pensare ad una vita priva di materiali polimerici. La loro versatilità, leggerezza e possibilità di essere facilmente processati li rende adattati a qualsiasi utilizzo. Nel settore edilizio i polimeri vengono utilizzati soprattutto come isolanti termici, prevalentemente sotto forma di schiuma espansa. Con la nascita di concetti legati alla sostenibilità quali green chemistry ed economia circolare, lo studio della fase finale del ciclo di vita dei materiali ha assunto un ruolo sempre più importante. Lo smaltimento, tramite riciclaggio o incenerimento, delle materie plastiche richiede elevate quantità di energia ed è accompagnata da elevate emissioni di carbonio, soprattutto di CO2. Inoltre, è sempre più viva la necessità di trovare fonti rinnovabili di materie prime. Per queste ragioni, negli ultimi anni, è aumentato l’interesse nella ricerca di materiali da fonti naturali che possano sostituire quelli derivanti dal petrolio. Le fibre di origine naturale, vegetale e animale, sembrano così rappresentare una valida alternativa per la produzione di materiali funzionali. Tra di esse, le fibre di cheratina rappresentano lo scarto di alcuni processi industriali, tra cui l’industria conciaria. I metodi tradizionali di smaltimento di queste fibre (ad esempio l’incenerimento) sono spesso costosi, inquinanti e dannosi sia per l’uomo che per l’ambiente e sono perciò in fase di ricerca nuovi metodi di utilizzo di questi scarti che siano economicamente e ambientalmente sostenibili. Le fibre di cheratina essendo un materiale resistente, isolante dal punto di vista termico e intrinsecamente ritardate alla fiamma, si presentano come possibile candidato per l’utilizzo nel campo della scienza dei materiali. Se le applicazioni studiate fin ora si basano sull’utilizzo delle fibre in compositi massivi, gli studi relativi all’utilizzo delle fibre come schiume o come materiale a sé stante sono ancora pochi. In questo lavoro di tesi sono state realizzate delle schiume a celle aperte a partire da fibre di cheratina rivestite superficialmente con polielettroliti di origine naturale. Il trattamento Layer by Layer (LbL) consente di realizzare un rivestimento superficiale di dimensioni nanometriche immergendo alternativamente le fibre in soluzioni cariche positivamente e negativamente. Si è utilizzato per le deposizioni il chitosano (CH) come polielettrolita positivo e nanofibre di cellulosa carbossimetilata (CNF) come nanoparticelle negative. Questi due componenti sono essenziali per l’ottenimento di una struttura porosa in seguito alla liofilizzazione e contribuiscono a migliorare le proprietà meccaniche. In seguito, si è analizzata l’influenza dello step di attivazione superficiale delle fibre, utilizzando polietilenimmina ramificata (BPEI), e delle condizioni di lavaggio delle fibre. Si è notato che un lavaggio a pH troppo aggressivi, sia acidi che basici, non consente il rivestimento delle fibre e, in seguito a liofilizzazione, l’ottenimento di una schiuma. Infine, sono stati studiati altri due sistemi in cui, come polielettroliti positivi, sono state utilizzate soluzioni contenenti gelatina (GEL) e BPEI. Sono stati confrontati i risultati ottenuti dalle prove meccaniche, di infiammabilità e di combustione dei diversi sistemi. Le schiume ottenute mostrano tutte un comportamento autoestinguente durante i test di infiammabilità, il sistema con il chitosano sembra essere quello che, nel complesso, mostra le migliori caratteristiche.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chemistry </t>
-  </si>
-  <si>
-    <t>not specified</t>
+    <t>d370335</t>
+  </si>
+  <si>
+    <t>d350985</t>
+  </si>
+  <si>
+    <t>d255269</t>
+  </si>
+  <si>
+    <t>d357587</t>
+  </si>
+  <si>
+    <t>research project</t>
+  </si>
+  <si>
+    <t>This thesis focuses on developing an AI-guided web crawler for the automatic detection of malicious sites. The research aims to leverage artificial intelligence to enhance the efficiency and accuracy of web crawling in identifying and cataloging potentially harmful websites.</t>
+  </si>
+  <si>
+    <t>web development, cybersecurity, and machine learning</t>
   </si>
   <si>
     <t>LM</t>
   </si>
   <si>
-    <t>LM-30</t>
+    <t>LM-32</t>
+  </si>
+  <si>
+    <t>This thesis focuses on the performance evaluation of Kafka clients using a reactive API. The research aims to assess and enhance the efficiency of Kafka clients by implementing a reactive programming approach. The study explores how a reactive API can improve responsiveness and scalability in real-time data streaming applications.</t>
+  </si>
+  <si>
+    <t>This research paper delves into a comprehensive study of congestion control schemes on QUIC (Quick UDP Internet Connections). The investigation aims to analyze and compare various congestion control strategies within the QUIC protocol, shedding light on their impact on network performance and efficiency.</t>
+  </si>
+  <si>
+    <t>The project involves implementing machine learning algorithms for pattern recognition, collaborating with cybersecurity experts, and optimizing web crawling algorithms for real-time detection</t>
+  </si>
+  <si>
+    <t>networking protocols, congestion control algorithms, and familiarity with QUIC</t>
+  </si>
+  <si>
+    <t>The study involves simulations, performance evaluations, and an in-depth analysis of the effectiveness of different congestion control schemes in QUIC</t>
+  </si>
+  <si>
+    <t>ULTRA-LOW-POWER ACOUSTIC SENSOR FRONTEND A DIGITAL TRANSCONDUCTANCE AMPLIFIER APPROACH</t>
+  </si>
+  <si>
+    <t>dissertation</t>
+  </si>
+  <si>
+    <t>This dissertation focuses on the design and implementation of an ultra-low-power acoustic sensor frontend using a digital transconductance amplifier approach. The research aims to explore novel methods in signal processing and circuit design to achieve highly efficient and low-power acoustic sensing capabilities.</t>
+  </si>
+  <si>
+    <t>analog and digital circuit design, signal processing, and low-power electronics</t>
+  </si>
+  <si>
+    <t>The project involves the development of a digital transconductance amplifier, integration with an acoustic sensor frontend, and extensive testing for ultra-low-power performance</t>
+  </si>
+  <si>
+    <t>LM-31</t>
+  </si>
+  <si>
+    <t>PRELIMINARY DESIGN OF AN ARCJET IN THE 1KW CLASS FOR SPACE APPLICATION</t>
+  </si>
+  <si>
+    <t>engineering project</t>
+  </si>
+  <si>
+    <t>This engineering project involves the preliminary design of an arcjet in the 1kW class for space applications. The research aims to conceptualize and outline the key parameters, components, and specifications required for the development of a high-powered arcjet propulsion system suitable for space missions.</t>
+  </si>
+  <si>
+    <t>propulsion systems, plasma physics, and aerospace engineering</t>
+  </si>
+  <si>
+    <t>The project includes conceptual design, performance modeling, and consideration of thermal management aspects for the arcjet propulsion system.</t>
+  </si>
+  <si>
+    <t>LM-23</t>
   </si>
 </sst>
 </file>
@@ -150,7 +216,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -185,7 +251,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -367,45 +433,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.36328125" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1">
+        <v>45576</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1">
+        <v>46015</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
-        <v>45605</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <v>46113</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1">
+        <v>46659</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45739</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
